--- a/DATA_goal/Junction_Flooding_383.xlsx
+++ b/DATA_goal/Junction_Flooding_383.xlsx
@@ -449,7 +449,7 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -655,103 +655,103 @@
         <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.94</v>
+        <v>49.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.27</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.42</v>
+        <v>24.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.54</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.81</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.75</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.1</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.69</v>
+        <v>66.88</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.8</v>
+        <v>17.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_383.xlsx
+++ b/DATA_goal/Junction_Flooding_383.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.88194444445</v>
+        <v>45064.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.88888888889</v>
+        <v>45064.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.01</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.68</v>
+        <v>17.339</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.68</v>
+        <v>2.064</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.15</v>
+        <v>51.919</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.15</v>
+        <v>42.489</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.13</v>
+        <v>18.903</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.33</v>
+        <v>72.117</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.27</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.17</v>
+        <v>12.736</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.34</v>
+        <v>18.975</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.18</v>
+        <v>20.81</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.59</v>
+        <v>21.827</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.2</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.99</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.22</v>
+        <v>26.631</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.99</v>
+        <v>15.959</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.631</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>1.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.45</v>
+        <v>278.82</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.32</v>
+        <v>52.574</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.91</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.21</v>
+        <v>35.174</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.04</v>
+        <v>18.451</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.48</v>
+        <v>3.055</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.65</v>
+        <v>34.987</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.03</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.14</v>
+        <v>13.72</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.29</v>
+        <v>16.102</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.64</v>
+        <v>21.639</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.76</v>
+        <v>65.511</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.67</v>
+        <v>9.738</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.98</v>
+        <v>21.692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.89583333334</v>
+        <v>45064.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.4</v>
+        <v>6.246</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.59</v>
+        <v>4.231</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.27</v>
+        <v>13.411</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.27</v>
+        <v>10.739</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.37</v>
+        <v>4.916</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.22</v>
+        <v>24.951</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.13</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.39</v>
+        <v>3.225</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.64</v>
+        <v>4.655</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.54</v>
+        <v>5.397</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>5.566</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.17</v>
+        <v>1.578</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.23</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.6</v>
+        <v>6.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.55</v>
+        <v>4.363</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.972</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.524</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.40000000000001</v>
+        <v>67.11499999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.81</v>
+        <v>13.948</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.51</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.91</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.93</v>
+        <v>4.758</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.049</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.75</v>
+        <v>11.214</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.5</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.47</v>
+        <v>3.696</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.8</v>
+        <v>4.314</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.09</v>
+        <v>5.519</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.1</v>
+        <v>23.009</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.35</v>
+        <v>2.445</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.58</v>
+        <v>5.642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>45064.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.79</v>
+        <v>2.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.78</v>
+        <v>1.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.93</v>
+        <v>5.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.03</v>
+        <v>3.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.59</v>
+        <v>1.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.32</v>
+        <v>10.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.32</v>
+        <v>2.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.17</v>
+        <v>1.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.78</v>
+        <v>1.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.45</v>
+        <v>2.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.3</v>
+        <v>2.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.57</v>
+        <v>0.61</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.47</v>
+        <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.98</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.01</v>
+        <v>1.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.88</v>
+        <v>21.32</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.71</v>
+        <v>5.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.7</v>
+        <v>1.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.44</v>
+        <v>3.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.03</v>
+        <v>1.82</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.56</v>
+        <v>4.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.98</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.22</v>
+        <v>1.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.2</v>
+        <v>1.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.85</v>
+        <v>2.07</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.99</v>
+        <v>10.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.41</v>
+        <v>0.88</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.41</v>
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_383.xlsx
+++ b/DATA_goal/Junction_Flooding_383.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45064.50694444445</v>
+        <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.178</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.652</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.068</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.752</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.691</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.879</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.007</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.432</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.251</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.607</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.868</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.597</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.069</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.79</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.094</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.41</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.498</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.451</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>232.996</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.923</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.575</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.082</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.996</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.159</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.874</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.654</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.651</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.331</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.457</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.214</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.105</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.222</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45064.51388888889</v>
+        <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.021</v>
+        <v>6.005</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.339</v>
+        <v>3.683</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.064</v>
+        <v>0.677</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.919</v>
+        <v>11.153</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.489</v>
+        <v>8.153</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.903</v>
+        <v>3.128</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>72.117</v>
+        <v>12.332</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.086</v>
+        <v>5.267</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.736</v>
+        <v>2.174</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.975</v>
+        <v>3.343</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.81</v>
+        <v>4.178</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.827</v>
+        <v>5.591</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.038</v>
+        <v>1.199</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.798</v>
+        <v>2.992</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.631</v>
+        <v>5.217</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.959</v>
+        <v>2.995</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.631</v>
+        <v>0.63</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.005</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.82</v>
+        <v>49.448</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.574</v>
+        <v>10.322</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.351</v>
+        <v>3.908</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.174</v>
+        <v>7.213</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.451</v>
+        <v>4.038</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.055</v>
+        <v>0.484</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.987</v>
+        <v>5.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.326</v>
+        <v>3.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.72</v>
+        <v>2.137</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.102</v>
+        <v>3.288</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.639</v>
+        <v>4.64</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.266</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>65.511</v>
+        <v>9.763</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.738</v>
+        <v>1.672</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.692</v>
+        <v>3.981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45064.52083333334</v>
+        <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.246</v>
+        <v>9.397</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.231</v>
+        <v>6.592</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.603</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.411</v>
+        <v>19.271</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.739</v>
+        <v>15.27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.916</v>
+        <v>6.369</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.951</v>
+        <v>24.222</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.562</v>
+        <v>10.135</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.225</v>
+        <v>4.385</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.655</v>
+        <v>6.643</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.397</v>
+        <v>7.544</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.566</v>
+        <v>8.715</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.578</v>
+        <v>2.169</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.888</v>
+        <v>6.226</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.88</v>
+        <v>9.605</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.363</v>
+        <v>5.545</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.972</v>
+        <v>0.47</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.524</v>
+        <v>0.133</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.11499999999999</v>
+        <v>95.399</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.948</v>
+        <v>18.809</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.511</v>
+        <v>6.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.154999999999999</v>
+        <v>12.909</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.758</v>
+        <v>6.93</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.049</v>
+        <v>0.883</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.214</v>
+        <v>11.75</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.985</v>
+        <v>5.503</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.696</v>
+        <v>4.467</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.314</v>
+        <v>5.8</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.519</v>
+        <v>8.093</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.009</v>
+        <v>21.102</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.445</v>
+        <v>3.354</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.642</v>
+        <v>7.577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45064.52777777778</v>
+        <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.4</v>
+        <v>6.789</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.46</v>
+        <v>4.783</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.431</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.12</v>
+        <v>13.927</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.93</v>
+        <v>11.035</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.89</v>
+        <v>4.588</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.97</v>
+        <v>20.319</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.91</v>
+        <v>7.325</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.19</v>
+        <v>3.165</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.61</v>
+        <v>4.781</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.08</v>
+        <v>5.449</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.08</v>
+        <v>6.301</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.61</v>
+        <v>1.571</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.88</v>
+        <v>4.467</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.62</v>
+        <v>6.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.81</v>
+        <v>4.012</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.354</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.078</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.32</v>
+        <v>66.884</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.47</v>
+        <v>13.715</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.74</v>
+        <v>4.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.5</v>
+        <v>9.439</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.82</v>
+        <v>5.029</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.639</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.72</v>
+        <v>9.561999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>3.977</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.5</v>
+        <v>3.218</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.74</v>
+        <v>4.204</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.07</v>
+        <v>5.847</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.12</v>
+        <v>17.992</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.88</v>
+        <v>2.414</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.17</v>
+        <v>5.469</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.90971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>118.41</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_383.xlsx
+++ b/DATA_goal/Junction_Flooding_383.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.88194444445</v>
+        <v>45064.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.88888888889</v>
+        <v>45064.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.005</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.683</v>
+        <v>17.339</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.677</v>
+        <v>2.064</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.153</v>
+        <v>51.919</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.153</v>
+        <v>42.489</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.128</v>
+        <v>18.903</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.332</v>
+        <v>72.117</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.267</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.174</v>
+        <v>12.736</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.343</v>
+        <v>18.975</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.178</v>
+        <v>20.81</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.591</v>
+        <v>21.827</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.199</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.992</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.217</v>
+        <v>26.631</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.995</v>
+        <v>15.959</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.631</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.005</v>
+        <v>1.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.448</v>
+        <v>278.82</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.322</v>
+        <v>52.574</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.908</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.213</v>
+        <v>35.174</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.038</v>
+        <v>18.451</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.484</v>
+        <v>3.055</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.65</v>
+        <v>34.987</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.03</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.137</v>
+        <v>13.72</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.288</v>
+        <v>16.102</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.64</v>
+        <v>21.639</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.763</v>
+        <v>65.511</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.672</v>
+        <v>9.738</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.981</v>
+        <v>21.692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.89583333334</v>
+        <v>45064.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.397</v>
+        <v>6.246</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.592</v>
+        <v>4.231</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.603</v>
+        <v>0.98</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.271</v>
+        <v>13.411</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.27</v>
+        <v>10.739</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.369</v>
+        <v>4.916</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.222</v>
+        <v>24.951</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.135</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.385</v>
+        <v>3.225</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.643</v>
+        <v>4.655</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.544</v>
+        <v>5.397</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.715</v>
+        <v>5.566</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.169</v>
+        <v>1.578</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.226</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.605</v>
+        <v>6.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.545</v>
+        <v>4.363</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.972</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.133</v>
+        <v>0.524</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.399</v>
+        <v>67.11499999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.809</v>
+        <v>13.948</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.511</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.909</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.93</v>
+        <v>4.758</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.883</v>
+        <v>1.049</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.75</v>
+        <v>11.214</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.503</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.467</v>
+        <v>3.696</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.8</v>
+        <v>4.314</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.093</v>
+        <v>5.519</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.102</v>
+        <v>23.009</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.354</v>
+        <v>2.445</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.577</v>
+        <v>5.642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>45064.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.789</v>
+        <v>2.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.783</v>
+        <v>1.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.431</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.927</v>
+        <v>5.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.035</v>
+        <v>3.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.588</v>
+        <v>1.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.319</v>
+        <v>10.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.325</v>
+        <v>2.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.165</v>
+        <v>1.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.781</v>
+        <v>1.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.449</v>
+        <v>2.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.301</v>
+        <v>2.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.571</v>
+        <v>0.61</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.467</v>
+        <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.98</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.012</v>
+        <v>1.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.354</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.078</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.884</v>
+        <v>21.32</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.715</v>
+        <v>5.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.7</v>
+        <v>1.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.439</v>
+        <v>3.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.029</v>
+        <v>1.82</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.639</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.561999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.977</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.218</v>
+        <v>1.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.204</v>
+        <v>1.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.847</v>
+        <v>2.07</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.992</v>
+        <v>10.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.414</v>
+        <v>0.88</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.469</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.41</v>
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>
